--- a/static/Self-monitoring_work_template.xlsx
+++ b/static/Self-monitoring_work_template.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rémi Thériault\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC48299-5252-40B6-8513-76099F10AD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6675D-E026-463C-855E-B69BBFDFC7F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" activeTab="3" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2019" sheetId="9" r:id="rId1"/>
-    <sheet name="Fall 2019_notes" sheetId="12" r:id="rId2"/>
-    <sheet name="Winter 2020" sheetId="10" r:id="rId3"/>
-    <sheet name="Summer 2020" sheetId="11" r:id="rId4"/>
+    <sheet name="Winter 2020" sheetId="10" r:id="rId2"/>
+    <sheet name="Summer 2020" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Monday</t>
   </si>
@@ -239,24 +237,6 @@
   <si>
     <t>Summer 2020</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Sessions</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
 </sst>
 </file>
 
@@ -332,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -347,7 +327,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7180,7 +7159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8195,390 +8174,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8310B84-E0A0-4FB2-B2CE-731E587DF751}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="12">
-        <v>43836</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B4-B3</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:G5" si="0">C4-C3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <f>SUM(B5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5">
-        <f>SUM(H:H)</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12">
-        <v>43835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>14.5</v>
-      </c>
-      <c r="D9">
-        <v>19.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1">
-        <f>B10-B9</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11:G11" si="1">C10-C9</f>
-        <v>4.5</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <f>SUM(B11:G11)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="12">
-        <v>43834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C15">
-        <v>14.5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B16-B15</f>
-        <v>3.5</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:G17" si="2">C16-C15</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <f>SUM(B17:G17)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="12">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="1">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="1">
-        <f>B22-B21</f>
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:G23" si="3">C22-C21</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <f>SUM(B23:G23)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
@@ -9487,11 +9082,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
